--- a/po_analysis_by_asin/B0BZQPG3C2_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQPG3C2_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,25 +452,193 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45334</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45348</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45355</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B25" t="n">
         <v>14</v>
       </c>
     </row>
@@ -485,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,17 +675,81 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B11" t="n">
         <v>14</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BZQPG3C2_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQPG3C2_po_data.xlsx
@@ -639,7 +639,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +750,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BZQPG3C2_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQPG3C2_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -669,7 +670,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -751,6 +752,495 @@
       </c>
       <c r="B11" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.649507688058842</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.99965051313022</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.780714193395614</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.60923390324007</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.995813850873737</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.97745743013591</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.551827469590339</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.89528231258715</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.692894882863353</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.0525752968645</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.261046901424295</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.04968732908005</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.411184639654876</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.44729181103635</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.7989722609515357</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.77591894423036</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.698805193601624</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15.31504238057353</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.6877502982667604</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16.24190265202412</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.4737069500067956</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15.37337429706278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.5199865175914298</v>
+      </c>
+      <c r="D13" t="n">
+        <v>16.03781243281203</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.3141843027113468</v>
+      </c>
+      <c r="D14" t="n">
+        <v>15.96478720092163</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4459873659112629</v>
+      </c>
+      <c r="D15" t="n">
+        <v>15.95439128290744</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.177371475552188</v>
+      </c>
+      <c r="D16" t="n">
+        <v>16.70851377048415</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.288061133448809</v>
+      </c>
+      <c r="D17" t="n">
+        <v>17.41859415171614</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.451536065663199</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17.98823542975003</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.133049588171711</v>
+      </c>
+      <c r="D19" t="n">
+        <v>18.10456024100484</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.487264407788123</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18.44721833641411</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.634838125710373</v>
+      </c>
+      <c r="D21" t="n">
+        <v>18.39442604702621</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.161834844047659</v>
+      </c>
+      <c r="D22" t="n">
+        <v>17.70450908595315</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.42481549216728</v>
+      </c>
+      <c r="D23" t="n">
+        <v>19.9819412363247</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.804002364803916</v>
+      </c>
+      <c r="D24" t="n">
+        <v>19.95650052529909</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.403747675589249</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20.53123874242164</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>13</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.445774325996467</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20.94992268330127</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>13</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.154318263616167</v>
+      </c>
+      <c r="D27" t="n">
+        <v>20.96060593778549</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>13</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.798887168987305</v>
+      </c>
+      <c r="D28" t="n">
+        <v>21.01249253383548</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>13</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.791032322384114</v>
+      </c>
+      <c r="D29" t="n">
+        <v>20.75382066970968</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>13</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.837872751447502</v>
+      </c>
+      <c r="D30" t="n">
+        <v>20.87880341099856</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>13</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.869497089119434</v>
+      </c>
+      <c r="D31" t="n">
+        <v>21.3909615583924</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>13</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.501792000883549</v>
+      </c>
+      <c r="D32" t="n">
+        <v>21.91896171325545</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>14</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.970226807775261</v>
+      </c>
+      <c r="D33" t="n">
+        <v>21.87481191893497</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BZQPG3C2_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQPG3C2_po_data.xlsx
@@ -765,7 +765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,16 +784,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -802,12 +792,6 @@
       <c r="B2" t="n">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
-        <v>-1.649507688058842</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.99965051313022</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -816,12 +800,6 @@
       <c r="B3" t="n">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
-        <v>-1.780714193395614</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.60923390324007</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -830,12 +808,6 @@
       <c r="B4" t="n">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
-        <v>-1.995813850873737</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.97745743013591</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -844,12 +816,6 @@
       <c r="B5" t="n">
         <v>7</v>
       </c>
-      <c r="C5" t="n">
-        <v>-1.551827469590339</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.89528231258715</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -858,12 +824,6 @@
       <c r="B6" t="n">
         <v>7</v>
       </c>
-      <c r="C6" t="n">
-        <v>-1.692894882863353</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15.0525752968645</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -872,12 +832,6 @@
       <c r="B7" t="n">
         <v>7</v>
       </c>
-      <c r="C7" t="n">
-        <v>-1.261046901424295</v>
-      </c>
-      <c r="D7" t="n">
-        <v>15.04968732908005</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -886,12 +840,6 @@
       <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
-        <v>-1.411184639654876</v>
-      </c>
-      <c r="D8" t="n">
-        <v>14.44729181103635</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -900,12 +848,6 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="n">
-        <v>-0.7989722609515357</v>
-      </c>
-      <c r="D9" t="n">
-        <v>14.77591894423036</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -914,12 +856,6 @@
       <c r="B10" t="n">
         <v>7</v>
       </c>
-      <c r="C10" t="n">
-        <v>-0.698805193601624</v>
-      </c>
-      <c r="D10" t="n">
-        <v>15.31504238057353</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -928,12 +864,6 @@
       <c r="B11" t="n">
         <v>7</v>
       </c>
-      <c r="C11" t="n">
-        <v>-0.6877502982667604</v>
-      </c>
-      <c r="D11" t="n">
-        <v>16.24190265202412</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -942,12 +872,6 @@
       <c r="B12" t="n">
         <v>7</v>
       </c>
-      <c r="C12" t="n">
-        <v>-0.4737069500067956</v>
-      </c>
-      <c r="D12" t="n">
-        <v>15.37337429706278</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -956,12 +880,6 @@
       <c r="B13" t="n">
         <v>8</v>
       </c>
-      <c r="C13" t="n">
-        <v>-0.5199865175914298</v>
-      </c>
-      <c r="D13" t="n">
-        <v>16.03781243281203</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -970,12 +888,6 @@
       <c r="B14" t="n">
         <v>8</v>
       </c>
-      <c r="C14" t="n">
-        <v>-0.3141843027113468</v>
-      </c>
-      <c r="D14" t="n">
-        <v>15.96478720092163</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -984,12 +896,6 @@
       <c r="B15" t="n">
         <v>8</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.4459873659112629</v>
-      </c>
-      <c r="D15" t="n">
-        <v>15.95439128290744</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -998,12 +904,6 @@
       <c r="B16" t="n">
         <v>9</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.177371475552188</v>
-      </c>
-      <c r="D16" t="n">
-        <v>16.70851377048415</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1012,12 +912,6 @@
       <c r="B17" t="n">
         <v>9</v>
       </c>
-      <c r="C17" t="n">
-        <v>1.288061133448809</v>
-      </c>
-      <c r="D17" t="n">
-        <v>17.41859415171614</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1026,12 +920,6 @@
       <c r="B18" t="n">
         <v>10</v>
       </c>
-      <c r="C18" t="n">
-        <v>1.451536065663199</v>
-      </c>
-      <c r="D18" t="n">
-        <v>17.98823542975003</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1040,12 +928,6 @@
       <c r="B19" t="n">
         <v>10</v>
       </c>
-      <c r="C19" t="n">
-        <v>2.133049588171711</v>
-      </c>
-      <c r="D19" t="n">
-        <v>18.10456024100484</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1054,12 +936,6 @@
       <c r="B20" t="n">
         <v>10</v>
       </c>
-      <c r="C20" t="n">
-        <v>1.487264407788123</v>
-      </c>
-      <c r="D20" t="n">
-        <v>18.44721833641411</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1068,12 +944,6 @@
       <c r="B21" t="n">
         <v>10</v>
       </c>
-      <c r="C21" t="n">
-        <v>1.634838125710373</v>
-      </c>
-      <c r="D21" t="n">
-        <v>18.39442604702621</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1082,12 +952,6 @@
       <c r="B22" t="n">
         <v>10</v>
       </c>
-      <c r="C22" t="n">
-        <v>2.161834844047659</v>
-      </c>
-      <c r="D22" t="n">
-        <v>17.70450908595315</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1096,12 +960,6 @@
       <c r="B23" t="n">
         <v>12</v>
       </c>
-      <c r="C23" t="n">
-        <v>3.42481549216728</v>
-      </c>
-      <c r="D23" t="n">
-        <v>19.9819412363247</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1110,12 +968,6 @@
       <c r="B24" t="n">
         <v>12</v>
       </c>
-      <c r="C24" t="n">
-        <v>4.804002364803916</v>
-      </c>
-      <c r="D24" t="n">
-        <v>19.95650052529909</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1124,12 +976,6 @@
       <c r="B25" t="n">
         <v>12</v>
       </c>
-      <c r="C25" t="n">
-        <v>4.403747675589249</v>
-      </c>
-      <c r="D25" t="n">
-        <v>20.53123874242164</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1138,12 +984,6 @@
       <c r="B26" t="n">
         <v>13</v>
       </c>
-      <c r="C26" t="n">
-        <v>4.445774325996467</v>
-      </c>
-      <c r="D26" t="n">
-        <v>20.94992268330127</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1152,12 +992,6 @@
       <c r="B27" t="n">
         <v>13</v>
       </c>
-      <c r="C27" t="n">
-        <v>4.154318263616167</v>
-      </c>
-      <c r="D27" t="n">
-        <v>20.96060593778549</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1166,12 +1000,6 @@
       <c r="B28" t="n">
         <v>13</v>
       </c>
-      <c r="C28" t="n">
-        <v>4.798887168987305</v>
-      </c>
-      <c r="D28" t="n">
-        <v>21.01249253383548</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1180,12 +1008,6 @@
       <c r="B29" t="n">
         <v>13</v>
       </c>
-      <c r="C29" t="n">
-        <v>4.791032322384114</v>
-      </c>
-      <c r="D29" t="n">
-        <v>20.75382066970968</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1194,12 +1016,6 @@
       <c r="B30" t="n">
         <v>13</v>
       </c>
-      <c r="C30" t="n">
-        <v>4.837872751447502</v>
-      </c>
-      <c r="D30" t="n">
-        <v>20.87880341099856</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1208,12 +1024,6 @@
       <c r="B31" t="n">
         <v>13</v>
       </c>
-      <c r="C31" t="n">
-        <v>4.869497089119434</v>
-      </c>
-      <c r="D31" t="n">
-        <v>21.3909615583924</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1222,12 +1032,6 @@
       <c r="B32" t="n">
         <v>13</v>
       </c>
-      <c r="C32" t="n">
-        <v>4.501792000883549</v>
-      </c>
-      <c r="D32" t="n">
-        <v>21.91896171325545</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1235,12 +1039,6 @@
       </c>
       <c r="B33" t="n">
         <v>14</v>
-      </c>
-      <c r="C33" t="n">
-        <v>4.970226807775261</v>
-      </c>
-      <c r="D33" t="n">
-        <v>21.87481191893497</v>
       </c>
     </row>
   </sheetData>
